--- a/excel/scrollbar.xlsx
+++ b/excel/scrollbar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NYC-PC2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\■\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C43EB4-DF02-45ED-B9CB-9B72ECB3F46A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289DF06A-722B-49D1-9E55-4E3F360ACA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D32AE4F2-70D0-4C18-82E1-DFD01F431058}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>S No</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t xml:space="preserve"> West Bengal</t>
+  </si>
+  <si>
+    <t>using offset (slow)</t>
+  </si>
+  <si>
+    <t>using index</t>
   </si>
 </sst>
 </file>
@@ -157,15 +163,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,19 +185,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -207,7 +243,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$K$1" max="18" page="5" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$F$2" max="18" page="3" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$P$2" max="18" page="3" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -216,15 +256,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -236,6 +276,56 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Scroll Bar 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57ED069-DE22-4EBF-B9D8-7523ACB162BE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -562,49 +652,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF89812-F216-4BF6-9A5F-FF2C1B107127}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -617,20 +714,32 @@
       <c r="D2" s="1">
         <v>76210007</v>
       </c>
-      <c r="G2" t="str">
-        <f ca="1">OFFSET(B2,$K$1,0)</f>
-        <v xml:space="preserve"> Andhra Pradesh</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:I2" ca="1" si="0">OFFSET(C2,$K$1,0)</f>
-        <v>275045</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>76210007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -643,20 +752,32 @@
       <c r="D3" s="1">
         <v>1097968</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" ca="1" si="1">OFFSET(B3,$K$1,0)</f>
-        <v xml:space="preserve"> Arunachal Pradesh</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H11" ca="1" si="2">OFFSET(C3,$K$1,0)</f>
-        <v>83743</v>
+      <c r="H3" t="str">
+        <f ca="1">OFFSET(B2,$F$2,0)</f>
+        <v xml:space="preserve"> Andhra Pradesh</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I11" ca="1" si="3">OFFSET(D3,$K$1,0)</f>
-        <v>1097968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <f ca="1">OFFSET(C2,$F$2,0)</f>
+        <v>275045</v>
+      </c>
+      <c r="J3" s="1">
+        <f ca="1">OFFSET(D2,$F$2,0)</f>
+        <v>76210007</v>
+      </c>
+      <c r="L3" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O3),COLUMNS($O$3:O3))</f>
+        <v xml:space="preserve"> Andhra Pradesh</v>
+      </c>
+      <c r="M3" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P3),COLUMNS($O$3:P3))</f>
+        <v>275045</v>
+      </c>
+      <c r="N3" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q3),COLUMNS($O$3:Q3))</f>
+        <v>76210007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -669,20 +790,32 @@
       <c r="D4" s="1">
         <v>26655528</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> Assam</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>78438</v>
+      <c r="H4" t="str">
+        <f ca="1">OFFSET(B3,$F$2,0)</f>
+        <v xml:space="preserve"> Arunachal Pradesh</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>26655528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f ca="1">OFFSET(C3,$F$2,0)</f>
+        <v>83743</v>
+      </c>
+      <c r="J4" s="1">
+        <f ca="1">OFFSET(D3,$F$2,0)</f>
+        <v>1097968</v>
+      </c>
+      <c r="L4" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O4),COLUMNS($O$3:O4))</f>
+        <v xml:space="preserve"> Arunachal Pradesh</v>
+      </c>
+      <c r="M4" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P4),COLUMNS($O$3:P4))</f>
+        <v>83743</v>
+      </c>
+      <c r="N4" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q4),COLUMNS($O$3:Q4))</f>
+        <v>1097968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -695,20 +828,32 @@
       <c r="D5" s="1">
         <v>82998509</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> Bihar</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>94163</v>
+      <c r="H5" t="str">
+        <f ca="1">OFFSET(B4,$F$2,0)</f>
+        <v xml:space="preserve"> Assam</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>82998509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f ca="1">OFFSET(C4,$F$2,0)</f>
+        <v>78438</v>
+      </c>
+      <c r="J5" s="1">
+        <f ca="1">OFFSET(D4,$F$2,0)</f>
+        <v>26655528</v>
+      </c>
+      <c r="L5" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O5),COLUMNS($O$3:O5))</f>
+        <v xml:space="preserve"> Assam</v>
+      </c>
+      <c r="M5" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P5),COLUMNS($O$3:P5))</f>
+        <v>78438</v>
+      </c>
+      <c r="N5" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q5),COLUMNS($O$3:Q5))</f>
+        <v>26655528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -721,20 +866,32 @@
       <c r="D6" s="1">
         <v>20833803</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> Chhattisgarh</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>135191</v>
+      <c r="H6" t="str">
+        <f ca="1">OFFSET(B5,$F$2,0)</f>
+        <v xml:space="preserve"> Bihar</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>20833803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <f ca="1">OFFSET(C5,$F$2,0)</f>
+        <v>94163</v>
+      </c>
+      <c r="J6" s="1">
+        <f ca="1">OFFSET(D5,$F$2,0)</f>
+        <v>82998509</v>
+      </c>
+      <c r="L6" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O6),COLUMNS($O$3:O6))</f>
+        <v xml:space="preserve"> Bihar</v>
+      </c>
+      <c r="M6" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P6),COLUMNS($O$3:P6))</f>
+        <v>94163</v>
+      </c>
+      <c r="N6" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q6),COLUMNS($O$3:Q6))</f>
+        <v>82998509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -747,20 +904,32 @@
       <c r="D7" s="1">
         <v>1347668</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> Goa </v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3702</v>
+      <c r="H7" t="str">
+        <f ca="1">OFFSET(B6,$F$2,0)</f>
+        <v xml:space="preserve"> Chhattisgarh</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1347668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <f ca="1">OFFSET(C6,$F$2,0)</f>
+        <v>135191</v>
+      </c>
+      <c r="J7" s="1">
+        <f ca="1">OFFSET(D6,$F$2,0)</f>
+        <v>20833803</v>
+      </c>
+      <c r="L7" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O7),COLUMNS($O$3:O7))</f>
+        <v xml:space="preserve"> Chhattisgarh</v>
+      </c>
+      <c r="M7" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P7),COLUMNS($O$3:P7))</f>
+        <v>135191</v>
+      </c>
+      <c r="N7" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q7),COLUMNS($O$3:Q7))</f>
+        <v>20833803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -773,20 +942,32 @@
       <c r="D8" s="1">
         <v>50671017</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> Gujarat</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>196024</v>
+      <c r="H8" t="str">
+        <f ca="1">OFFSET(B7,$F$2,0)</f>
+        <v xml:space="preserve"> Goa </v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>50671017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <f ca="1">OFFSET(C7,$F$2,0)</f>
+        <v>3702</v>
+      </c>
+      <c r="J8" s="1">
+        <f ca="1">OFFSET(D7,$F$2,0)</f>
+        <v>1347668</v>
+      </c>
+      <c r="L8" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O8),COLUMNS($O$3:O8))</f>
+        <v xml:space="preserve"> Goa </v>
+      </c>
+      <c r="M8" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P8),COLUMNS($O$3:P8))</f>
+        <v>3702</v>
+      </c>
+      <c r="N8" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q8),COLUMNS($O$3:Q8))</f>
+        <v>1347668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -799,20 +980,32 @@
       <c r="D9" s="1">
         <v>21144564</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> Haryana</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>44212</v>
+      <c r="H9" t="str">
+        <f ca="1">OFFSET(B8,$F$2,0)</f>
+        <v xml:space="preserve"> Gujarat</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>21144564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <f ca="1">OFFSET(C8,$F$2,0)</f>
+        <v>196024</v>
+      </c>
+      <c r="J9" s="1">
+        <f ca="1">OFFSET(D8,$F$2,0)</f>
+        <v>50671017</v>
+      </c>
+      <c r="L9" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O9),COLUMNS($O$3:O9))</f>
+        <v xml:space="preserve"> Gujarat</v>
+      </c>
+      <c r="M9" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P9),COLUMNS($O$3:P9))</f>
+        <v>196024</v>
+      </c>
+      <c r="N9" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q9),COLUMNS($O$3:Q9))</f>
+        <v>50671017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -825,20 +1018,32 @@
       <c r="D10" s="1">
         <v>6077900</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> Himachal Pradesh</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>55673</v>
+      <c r="H10" t="str">
+        <f ca="1">OFFSET(B9,$F$2,0)</f>
+        <v xml:space="preserve"> Haryana</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>6077900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <f ca="1">OFFSET(C9,$F$2,0)</f>
+        <v>44212</v>
+      </c>
+      <c r="J10" s="1">
+        <f ca="1">OFFSET(D9,$F$2,0)</f>
+        <v>21144564</v>
+      </c>
+      <c r="L10" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O10),COLUMNS($O$3:O10))</f>
+        <v xml:space="preserve"> Haryana</v>
+      </c>
+      <c r="M10" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P10),COLUMNS($O$3:P10))</f>
+        <v>44212</v>
+      </c>
+      <c r="N10" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q10),COLUMNS($O$3:Q10))</f>
+        <v>21144564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -851,20 +1056,32 @@
       <c r="D11" s="1">
         <v>10143700</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> Jammu &amp; Kashmir</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>222236</v>
+      <c r="H11" t="str">
+        <f ca="1">OFFSET(B10,$F$2,0)</f>
+        <v xml:space="preserve"> Himachal Pradesh</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>10143700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <f ca="1">OFFSET(C10,$F$2,0)</f>
+        <v>55673</v>
+      </c>
+      <c r="J11" s="1">
+        <f ca="1">OFFSET(D10,$F$2,0)</f>
+        <v>6077900</v>
+      </c>
+      <c r="L11" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O11),COLUMNS($O$3:O11))</f>
+        <v xml:space="preserve"> Himachal Pradesh</v>
+      </c>
+      <c r="M11" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P11),COLUMNS($O$3:P11))</f>
+        <v>55673</v>
+      </c>
+      <c r="N11" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q11),COLUMNS($O$3:Q11))</f>
+        <v>6077900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -877,8 +1094,32 @@
       <c r="D12" s="1">
         <v>26945829</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f ca="1">OFFSET(B11,$F$2,0)</f>
+        <v xml:space="preserve"> Jammu &amp; Kashmir</v>
+      </c>
+      <c r="I12" s="1">
+        <f ca="1">OFFSET(C11,$F$2,0)</f>
+        <v>222236</v>
+      </c>
+      <c r="J12" s="1">
+        <f ca="1">OFFSET(D11,$F$2,0)</f>
+        <v>10143700</v>
+      </c>
+      <c r="L12" t="str">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:O12),COLUMNS($O$3:O12))</f>
+        <v xml:space="preserve"> Jammu &amp; Kashmir</v>
+      </c>
+      <c r="M12" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:P12),COLUMNS($O$3:P12))</f>
+        <v>222236</v>
+      </c>
+      <c r="N12" s="1">
+        <f>INDEX($B$2:$D$29,$P$2+ROWS($O$3:Q12),COLUMNS($O$3:Q12))</f>
+        <v>10143700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -892,7 +1133,7 @@
         <v>52850562</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -906,7 +1147,7 @@
         <v>31841374</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -920,7 +1161,7 @@
         <v>60348023</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1117,6 +1358,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1130,16 +1375,38 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Scroll Bar 2">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
